--- a/Test_Data/write.xlsx
+++ b/Test_Data/write.xlsx
@@ -17,19 +17,19 @@
     <t>vijay</t>
   </si>
   <si>
-    <t>ramesh</t>
+    <t>satara</t>
   </si>
   <si>
-    <t>amit</t>
+    <t>reshma</t>
   </si>
   <si>
-    <t>welcome</t>
+    <t>gangapur</t>
   </si>
   <si>
-    <t>how</t>
+    <t>didi</t>
   </si>
   <si>
-    <t>are</t>
+    <t>kalamboli</t>
   </si>
 </sst>
 </file>
